--- a/CSOF5100 Proyecto 1/0601DocumentoFinal.xlsx
+++ b/CSOF5100 Proyecto 1/0601DocumentoFinal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18915" windowHeight="8475"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18915" windowHeight="8475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="68">
   <si>
     <t>Proyecto 1: Órdenes de Compra</t>
   </si>
@@ -122,16 +122,115 @@
   <si>
     <t>Orden</t>
   </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>PN01</t>
+  </si>
+  <si>
+    <t>PN02</t>
+  </si>
+  <si>
+    <t>PN03</t>
+  </si>
+  <si>
+    <t>PN04</t>
+  </si>
+  <si>
+    <t>PN05</t>
+  </si>
+  <si>
+    <t>PN06</t>
+  </si>
+  <si>
+    <t>PN07</t>
+  </si>
+  <si>
+    <t>PN08</t>
+  </si>
+  <si>
+    <t>PN09</t>
+  </si>
+  <si>
+    <t>PD01</t>
+  </si>
+  <si>
+    <t>PD02</t>
+  </si>
+  <si>
+    <t>PD03</t>
+  </si>
+  <si>
+    <t>PD04</t>
+  </si>
+  <si>
+    <t>PD05</t>
+  </si>
+  <si>
+    <t>PD06</t>
+  </si>
+  <si>
+    <t>PA01</t>
+  </si>
+  <si>
+    <t>PA02</t>
+  </si>
+  <si>
+    <t>PA03</t>
+  </si>
+  <si>
+    <t>PA04</t>
+  </si>
+  <si>
+    <t>PA05</t>
+  </si>
+  <si>
+    <t>PA06</t>
+  </si>
+  <si>
+    <t>PA07</t>
+  </si>
+  <si>
+    <t>PA08</t>
+  </si>
+  <si>
+    <t>PA09</t>
+  </si>
+  <si>
+    <t>PT01</t>
+  </si>
+  <si>
+    <t>PT02</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="169" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +245,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -336,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -349,39 +481,800 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$J$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$K$46:$P$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>PC01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PC03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PC02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PC04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PC05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PC06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$K$56:$P$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$J$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$K$46:$P$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>PC01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PC03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PC02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PC04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PC05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PC06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$K$57:$P$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$J$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$K$46:$P$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>PC01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PC03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PC02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PC04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PC05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PC06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$K$58:$P$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$J$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$K$46:$P$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>PC01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PC03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PC02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PC04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PC05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PC06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$K$59:$P$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$J$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700"/>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$K$46:$P$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>PC01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PC03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PC02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PC04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PC05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PC06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$K$60:$P$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$J$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$K$46:$P$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>PC01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PC03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PC02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PC04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PC05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PC06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$K$61:$P$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$J$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$K$46:$P$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>PC01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PC03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PC02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PC04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PC05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PC06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$K$62:$P$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="61845504"/>
+        <c:axId val="61847040"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="61845504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Proyectos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61847040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="61847040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Cumplimiento</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de motivadores</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="61845504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -671,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44:O50"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -823,31 +1716,31 @@
         <v>5</v>
       </c>
       <c r="O6" s="12">
-        <f>H6*O$4</f>
+        <f t="shared" ref="O6:O41" si="0">H6*O$4</f>
         <v>0.4</v>
       </c>
       <c r="P6" s="13">
-        <f>I6*P$4</f>
+        <f t="shared" ref="P6:P41" si="1">I6*P$4</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q6" s="13">
-        <f>J6*Q$4</f>
+        <f t="shared" ref="Q6:Q41" si="2">J6*Q$4</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="R6" s="13">
-        <f>K6*R$4</f>
+        <f t="shared" ref="R6:R41" si="3">K6*R$4</f>
         <v>0.6</v>
       </c>
       <c r="S6" s="13">
-        <f>L6*S$4</f>
+        <f t="shared" ref="S6:S41" si="4">L6*S$4</f>
         <v>0.75</v>
       </c>
       <c r="T6" s="13">
-        <f>M6*T$4</f>
+        <f t="shared" ref="T6:T41" si="5">M6*T$4</f>
         <v>0.4</v>
       </c>
       <c r="U6" s="14">
-        <f>N6*U$4</f>
+        <f t="shared" ref="U6:U41" si="6">N6*U$4</f>
         <v>0.75</v>
       </c>
       <c r="V6" s="15">
@@ -888,35 +1781,35 @@
         <v>5</v>
       </c>
       <c r="O7" s="20">
-        <f>H7*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P7" s="21">
-        <f>I7*P$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q7" s="21">
-        <f>J7*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R7" s="21">
-        <f>K7*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="S7" s="21">
-        <f>L7*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="T7" s="21">
-        <f>M7*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U7" s="22">
-        <f>N7*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="V7" s="23">
-        <f t="shared" ref="V7:V11" si="0">SUM(O7:U7)</f>
+        <f t="shared" ref="V7:V11" si="7">SUM(O7:U7)</f>
         <v>4.7</v>
       </c>
       <c r="W7" s="24">
@@ -950,35 +1843,35 @@
         <v>3</v>
       </c>
       <c r="O8" s="20">
-        <f>H8*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P8" s="21">
-        <f>I8*P$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q8" s="21">
-        <f>J8*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="R8" s="21">
-        <f>K8*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S8" s="21">
-        <f>L8*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T8" s="21">
-        <f>M8*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="U8" s="22">
-        <f>N8*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V8" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4.3</v>
       </c>
       <c r="W8" s="24">
@@ -1021,35 +1914,35 @@
         <v>3</v>
       </c>
       <c r="O9" s="20">
-        <f>H9*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P9" s="21">
-        <f>I9*P$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q9" s="21">
-        <f>J9*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R9" s="21">
-        <f>K9*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S9" s="21">
-        <f>L9*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T9" s="21">
-        <f>M9*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="U9" s="22">
-        <f>N9*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V9" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4.1500000000000004</v>
       </c>
       <c r="W9" s="24">
@@ -1092,35 +1985,35 @@
         <v>3</v>
       </c>
       <c r="O10" s="20">
-        <f>H10*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="P10" s="21">
-        <f>I10*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q10" s="21">
-        <f>J10*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R10" s="21">
-        <f>K10*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="S10" s="21">
-        <f>L10*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="T10" s="21">
-        <f>M10*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U10" s="22">
-        <f>N10*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V10" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="W10" s="24">
@@ -1163,35 +2056,35 @@
         <v>5</v>
       </c>
       <c r="O11" s="29">
-        <f>H11*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P11" s="30">
-        <f>I11*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q11" s="30">
-        <f>J11*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R11" s="30">
-        <f>K11*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S11" s="30">
-        <f>L11*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="T11" s="30">
-        <f>M11*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U11" s="31">
-        <f>N11*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="V11" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3.8499999999999996</v>
       </c>
       <c r="W11" s="33">
@@ -1236,31 +2129,31 @@
         <v>5</v>
       </c>
       <c r="O12" s="12">
-        <f>H12*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P12" s="13">
-        <f>I12*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q12" s="13">
-        <f>J12*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R12" s="13">
-        <f>K12*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S12" s="13">
-        <f>L12*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="T12" s="13">
-        <f>M12*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U12" s="14">
-        <f>N12*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="V12" s="15">
@@ -1307,35 +2200,35 @@
         <v>3</v>
       </c>
       <c r="O13" s="20">
-        <f>H13*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P13" s="21">
-        <f>I13*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q13" s="21">
-        <f>J13*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="R13" s="21">
-        <f>K13*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S13" s="21">
-        <f>L13*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T13" s="21">
-        <f>M13*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U13" s="22">
-        <f>N13*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V13" s="23">
-        <f t="shared" ref="V13:V17" si="1">SUM(O13:U13)</f>
+        <f t="shared" ref="V13:V17" si="8">SUM(O13:U13)</f>
         <v>3.8000000000000007</v>
       </c>
       <c r="W13" s="24">
@@ -1378,35 +2271,35 @@
         <v>3</v>
       </c>
       <c r="O14" s="20">
-        <f>H14*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="P14" s="21">
-        <f>I14*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q14" s="21">
-        <f>J14*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R14" s="21">
-        <f>K14*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S14" s="21">
-        <f>L14*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="T14" s="21">
-        <f>M14*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U14" s="22">
-        <f>N14*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V14" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
       <c r="W14" s="24">
@@ -1449,35 +2342,35 @@
         <v>5</v>
       </c>
       <c r="O15" s="20">
-        <f>H15*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P15" s="21">
-        <f>I15*P$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q15" s="21">
-        <f>J15*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R15" s="21">
-        <f>K15*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="S15" s="21">
-        <f>L15*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="T15" s="21">
-        <f>M15*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U15" s="22">
-        <f>N15*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="V15" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>4.3499999999999996</v>
       </c>
       <c r="W15" s="24">
@@ -1511,35 +2404,35 @@
         <v>4</v>
       </c>
       <c r="O16" s="20">
-        <f>H16*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P16" s="21">
-        <f>I16*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q16" s="21">
-        <f>J16*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R16" s="21">
-        <f>K16*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S16" s="21">
-        <f>L16*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T16" s="21">
-        <f>M16*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U16" s="22">
-        <f>N16*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="V16" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="W16" s="24">
@@ -1573,35 +2466,35 @@
         <v>3</v>
       </c>
       <c r="O17" s="29">
-        <f>H17*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P17" s="30">
-        <f>I17*P$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q17" s="30">
-        <f>J17*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R17" s="30">
-        <f>K17*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="S17" s="30">
-        <f>L17*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="T17" s="30">
-        <f>M17*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U17" s="31">
-        <f>N17*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V17" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3.75</v>
       </c>
       <c r="W17" s="33">
@@ -1637,35 +2530,35 @@
         <v>5</v>
       </c>
       <c r="O18" s="12">
-        <f>H18*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="P18" s="13">
-        <f>I18*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q18" s="13">
-        <f>J18*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="R18" s="13">
-        <f>K18*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S18" s="13">
-        <f>L18*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="T18" s="13">
-        <f>M18*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U18" s="14">
-        <f>N18*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="V18" s="15">
-        <f t="shared" ref="V18:V41" si="2">SUM(O18:U18)</f>
+        <f t="shared" ref="V18:V41" si="9">SUM(O18:U18)</f>
         <v>4.05</v>
       </c>
       <c r="W18" s="16">
@@ -1699,35 +2592,35 @@
         <v>5</v>
       </c>
       <c r="O19" s="20">
-        <f>H19*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P19" s="21">
-        <f>I19*P$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q19" s="21">
-        <f>J19*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R19" s="21">
-        <f>K19*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="S19" s="21">
-        <f>L19*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T19" s="21">
-        <f>M19*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U19" s="22">
-        <f>N19*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="V19" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="W19" s="24">
@@ -1761,35 +2654,35 @@
         <v>5</v>
       </c>
       <c r="O20" s="20">
-        <f>H20*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P20" s="21">
-        <f>I20*P$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q20" s="21">
-        <f>J20*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R20" s="21">
-        <f>K20*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="S20" s="21">
-        <f>L20*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="T20" s="21">
-        <f>M20*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="U20" s="22">
-        <f>N20*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="V20" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.75</v>
       </c>
       <c r="W20" s="24">
@@ -1823,35 +2716,35 @@
         <v>3</v>
       </c>
       <c r="O21" s="20">
-        <f>H21*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P21" s="21">
-        <f>I21*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q21" s="21">
-        <f>J21*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R21" s="21">
-        <f>K21*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="S21" s="21">
-        <f>L21*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T21" s="21">
-        <f>M21*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="U21" s="22">
-        <f>N21*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V21" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.8</v>
       </c>
       <c r="W21" s="24">
@@ -1885,35 +2778,35 @@
         <v>4</v>
       </c>
       <c r="O22" s="20">
-        <f>H22*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="P22" s="21">
-        <f>I22*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q22" s="21">
-        <f>J22*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R22" s="21">
-        <f>K22*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S22" s="21">
-        <f>L22*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="T22" s="21">
-        <f>M22*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="U22" s="22">
-        <f>N22*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="V22" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.9</v>
       </c>
       <c r="W22" s="24">
@@ -1947,35 +2840,35 @@
         <v>5</v>
       </c>
       <c r="O23" s="29">
-        <f>H23*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="P23" s="30">
-        <f>I23*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q23" s="30">
-        <f>J23*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R23" s="30">
-        <f>K23*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="S23" s="30">
-        <f>L23*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T23" s="30">
-        <f>M23*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U23" s="31">
-        <f>N23*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="V23" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.75</v>
       </c>
       <c r="W23" s="33">
@@ -2011,35 +2904,35 @@
         <v>5</v>
       </c>
       <c r="O24" s="12">
-        <f>H24*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="P24" s="13">
-        <f>I24*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q24" s="13">
-        <f>J24*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R24" s="13">
-        <f>K24*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="S24" s="13">
-        <f>L24*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T24" s="13">
-        <f>M24*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U24" s="14">
-        <f>N24*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="V24" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.3000000000000007</v>
       </c>
       <c r="W24" s="16">
@@ -2073,35 +2966,35 @@
         <v>3</v>
       </c>
       <c r="O25" s="20">
-        <f>H25*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="P25" s="21">
-        <f>I25*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q25" s="21">
-        <f>J25*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R25" s="21">
-        <f>K25*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S25" s="21">
-        <f>L25*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="T25" s="21">
-        <f>M25*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U25" s="22">
-        <f>N25*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V25" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
       <c r="W25" s="24">
@@ -2135,35 +3028,35 @@
         <v>5</v>
       </c>
       <c r="O26" s="20">
-        <f>H26*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="P26" s="21">
-        <f>I26*P$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q26" s="21">
-        <f>J26*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R26" s="21">
-        <f>K26*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S26" s="21">
-        <f>L26*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="T26" s="21">
-        <f>M26*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U26" s="22">
-        <f>N26*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="V26" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.3</v>
       </c>
       <c r="W26" s="24">
@@ -2197,35 +3090,35 @@
         <v>4</v>
       </c>
       <c r="O27" s="20">
-        <f>H27*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="P27" s="21">
-        <f>I27*P$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q27" s="21">
-        <f>J27*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="R27" s="21">
-        <f>K27*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S27" s="21">
-        <f>L27*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="T27" s="21">
-        <f>M27*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U27" s="22">
-        <f>N27*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="V27" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="W27" s="24">
@@ -2259,35 +3152,35 @@
         <v>5</v>
       </c>
       <c r="O28" s="20">
-        <f>H28*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P28" s="21">
-        <f>I28*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q28" s="21">
-        <f>J28*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R28" s="21">
-        <f>K28*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="S28" s="21">
-        <f>L28*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="T28" s="21">
-        <f>M28*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U28" s="22">
-        <f>N28*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="V28" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.1499999999999995</v>
       </c>
       <c r="W28" s="24">
@@ -2321,35 +3214,35 @@
         <v>3</v>
       </c>
       <c r="O29" s="29">
-        <f>H29*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="P29" s="30">
-        <f>I29*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q29" s="30">
-        <f>J29*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R29" s="30">
-        <f>K29*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="S29" s="30">
-        <f>L29*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T29" s="30">
-        <f>M29*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="U29" s="31">
-        <f>N29*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V29" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.45</v>
       </c>
       <c r="W29" s="33">
@@ -2385,35 +3278,35 @@
         <v>5</v>
       </c>
       <c r="O30" s="12">
-        <f>H30*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="P30" s="13">
-        <f>I30*P$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q30" s="13">
-        <f>J30*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R30" s="13">
-        <f>K30*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="S30" s="13">
-        <f>L30*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="T30" s="13">
-        <f>M30*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="U30" s="14">
-        <f>N30*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="V30" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="W30" s="16">
@@ -2447,35 +3340,35 @@
         <v>3</v>
       </c>
       <c r="O31" s="20">
-        <f>H31*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="P31" s="21">
-        <f>I31*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q31" s="21">
-        <f>J31*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R31" s="21">
-        <f>K31*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="S31" s="21">
-        <f>L31*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T31" s="21">
-        <f>M31*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U31" s="22">
-        <f>N31*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V31" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.6500000000000004</v>
       </c>
       <c r="W31" s="24">
@@ -2509,35 +3402,35 @@
         <v>5</v>
       </c>
       <c r="O32" s="20">
-        <f>H32*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P32" s="21">
-        <f>I32*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q32" s="21">
-        <f>J32*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="R32" s="21">
-        <f>K32*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S32" s="21">
-        <f>L32*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="T32" s="21">
-        <f>M32*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U32" s="22">
-        <f>N32*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="V32" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.95</v>
       </c>
       <c r="W32" s="24">
@@ -2571,35 +3464,35 @@
         <v>4</v>
       </c>
       <c r="O33" s="20">
-        <f>H33*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="P33" s="21">
-        <f>I33*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q33" s="21">
-        <f>J33*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R33" s="21">
-        <f>K33*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="S33" s="21">
-        <f>L33*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="T33" s="21">
-        <f>M33*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="U33" s="22">
-        <f>N33*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="V33" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.65</v>
       </c>
       <c r="W33" s="24">
@@ -2633,35 +3526,35 @@
         <v>3</v>
       </c>
       <c r="O34" s="20">
-        <f>H34*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P34" s="21">
-        <f>I34*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q34" s="21">
-        <f>J34*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R34" s="21">
-        <f>K34*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="S34" s="21">
-        <f>L34*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T34" s="21">
-        <f>M34*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U34" s="22">
-        <f>N34*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V34" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.55</v>
       </c>
       <c r="W34" s="24">
@@ -2695,35 +3588,35 @@
         <v>3</v>
       </c>
       <c r="O35" s="29">
-        <f>H35*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="P35" s="30">
-        <f>I35*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q35" s="30">
-        <f>J35*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R35" s="30">
-        <f>K35*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="S35" s="30">
-        <f>L35*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="T35" s="30">
-        <f>M35*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U35" s="31">
-        <f>N35*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V35" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.8</v>
       </c>
       <c r="W35" s="33">
@@ -2759,35 +3652,35 @@
         <v>3</v>
       </c>
       <c r="O36" s="12">
-        <f>H36*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="P36" s="13">
-        <f>I36*P$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q36" s="13">
-        <f>J36*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="R36" s="13">
-        <f>K36*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="S36" s="13">
-        <f>L36*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="T36" s="13">
-        <f>M36*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U36" s="14">
-        <f>N36*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V36" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="W36" s="16">
@@ -2821,35 +3714,35 @@
         <v>4</v>
       </c>
       <c r="O37" s="20">
-        <f>H37*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="P37" s="21">
-        <f>I37*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q37" s="21">
-        <f>J37*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="R37" s="21">
-        <f>K37*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="S37" s="21">
-        <f>L37*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="T37" s="21">
-        <f>M37*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U37" s="22">
-        <f>N37*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="V37" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.85</v>
       </c>
       <c r="W37" s="24">
@@ -2883,35 +3776,35 @@
         <v>4</v>
       </c>
       <c r="O38" s="20">
-        <f>H38*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="P38" s="21">
-        <f>I38*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q38" s="21">
-        <f>J38*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R38" s="21">
-        <f>K38*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="S38" s="21">
-        <f>L38*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T38" s="21">
-        <f>M38*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="U38" s="22">
-        <f>N38*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="V38" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.85</v>
       </c>
       <c r="W38" s="24">
@@ -2945,35 +3838,35 @@
         <v>3</v>
       </c>
       <c r="O39" s="20">
-        <f>H39*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="P39" s="21">
-        <f>I39*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q39" s="21">
-        <f>J39*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="R39" s="21">
-        <f>K39*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="S39" s="21">
-        <f>L39*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T39" s="21">
-        <f>M39*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="U39" s="22">
-        <f>N39*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V39" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.3999999999999995</v>
       </c>
       <c r="W39" s="24">
@@ -3007,35 +3900,35 @@
         <v>4</v>
       </c>
       <c r="O40" s="20">
-        <f>H40*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="P40" s="21">
-        <f>I40*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q40" s="21">
-        <f>J40*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="R40" s="21">
-        <f>K40*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="S40" s="21">
-        <f>L40*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="T40" s="21">
-        <f>M40*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="U40" s="22">
-        <f>N40*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="V40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.9499999999999997</v>
       </c>
       <c r="W40" s="24">
@@ -3069,35 +3962,35 @@
         <v>3</v>
       </c>
       <c r="O41" s="29">
-        <f>H41*O$4</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="P41" s="30">
-        <f>I41*P$4</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q41" s="30">
-        <f>J41*Q$4</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="R41" s="30">
-        <f>K41*R$4</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="S41" s="30">
-        <f>L41*S$4</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="T41" s="30">
-        <f>M41*T$4</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="U41" s="31">
-        <f>N41*U$4</f>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="V41" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.8</v>
       </c>
       <c r="W41" s="33">
@@ -3171,31 +4064,31 @@
         <v>21</v>
       </c>
       <c r="H46" s="20">
-        <f t="shared" ref="H46:H50" si="3">V7</f>
+        <f t="shared" ref="H46:H50" si="10">V7</f>
         <v>4.7</v>
       </c>
       <c r="I46" s="21">
-        <f t="shared" ref="I46:I50" si="4">V13</f>
+        <f t="shared" ref="I46:I50" si="11">V13</f>
         <v>3.8000000000000007</v>
       </c>
       <c r="J46" s="21">
-        <f t="shared" ref="J46:J50" si="5">V19</f>
+        <f t="shared" ref="J46:J50" si="12">V19</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="K46" s="21">
-        <f t="shared" ref="K46:K50" si="6">V25</f>
+        <f t="shared" ref="K46:K50" si="13">V25</f>
         <v>3.5</v>
       </c>
       <c r="L46" s="21">
-        <f t="shared" ref="L46:L50" si="7">V31</f>
+        <f t="shared" ref="L46:L50" si="14">V31</f>
         <v>3.6500000000000004</v>
       </c>
       <c r="M46" s="22">
-        <f t="shared" ref="M46:M50" si="8">V37</f>
+        <f t="shared" ref="M46:M50" si="15">V37</f>
         <v>3.85</v>
       </c>
       <c r="N46" s="22">
-        <f t="shared" ref="N46:N50" si="9">AVERAGE(H46:M46)</f>
+        <f t="shared" ref="N46:N50" si="16">AVERAGE(H46:M46)</f>
         <v>3.9833333333333329</v>
       </c>
       <c r="O46" s="36">
@@ -3207,31 +4100,31 @@
         <v>22</v>
       </c>
       <c r="H47" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>4.3</v>
       </c>
       <c r="I47" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
       <c r="J47" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4.75</v>
       </c>
       <c r="K47" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.3</v>
       </c>
       <c r="L47" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.95</v>
       </c>
       <c r="M47" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3.85</v>
       </c>
       <c r="N47" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.1083333333333334</v>
       </c>
       <c r="O47" s="36">
@@ -3243,31 +4136,31 @@
         <v>23</v>
       </c>
       <c r="H48" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>4.1500000000000004</v>
       </c>
       <c r="I48" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>4.3499999999999996</v>
       </c>
       <c r="J48" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3.8</v>
       </c>
       <c r="K48" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="L48" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.65</v>
       </c>
       <c r="M48" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3.3999999999999995</v>
       </c>
       <c r="N48" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.9083333333333328</v>
       </c>
       <c r="O48" s="36">
@@ -3279,31 +4172,31 @@
         <v>24</v>
       </c>
       <c r="H49" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="I49" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="J49" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3.9</v>
       </c>
       <c r="K49" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.1499999999999995</v>
       </c>
       <c r="L49" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.55</v>
       </c>
       <c r="M49" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3.9499999999999997</v>
       </c>
       <c r="N49" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.9083333333333332</v>
       </c>
       <c r="O49" s="36">
@@ -3315,31 +4208,31 @@
         <v>25</v>
       </c>
       <c r="H50" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.8499999999999996</v>
       </c>
       <c r="I50" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3.75</v>
       </c>
       <c r="J50" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3.75</v>
       </c>
       <c r="K50" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.45</v>
       </c>
       <c r="L50" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.8</v>
       </c>
       <c r="M50" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3.8</v>
       </c>
       <c r="N50" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.7333333333333338</v>
       </c>
       <c r="O50" s="37">
@@ -3354,13 +4247,2519 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C47" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="8" width="11.42578125" style="43" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="38" customFormat="1">
+      <c r="B1" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="38">
+        <f>A1</f>
+        <v>0</v>
+      </c>
+      <c r="K1" s="38" t="str">
+        <f t="shared" ref="K1:Q16" si="0">B1</f>
+        <v>M1</v>
+      </c>
+      <c r="L1" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>M2</v>
+      </c>
+      <c r="M1" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>M3</v>
+      </c>
+      <c r="N1" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>M4</v>
+      </c>
+      <c r="O1" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>M5</v>
+      </c>
+      <c r="P1" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>M6</v>
+      </c>
+      <c r="Q1" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>M7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
+        <v>5</v>
+      </c>
+      <c r="G2" s="42">
+        <v>5</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="J2" s="38" t="str">
+        <f t="shared" ref="J2:Q28" si="1">A2</f>
+        <v>PN01</v>
+      </c>
+      <c r="K2" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P2" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q2" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42">
+        <v>15</v>
+      </c>
+      <c r="F3" s="42">
+        <v>5</v>
+      </c>
+      <c r="G3" s="42">
+        <v>10</v>
+      </c>
+      <c r="H3" s="42"/>
+      <c r="J3" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PN02</v>
+      </c>
+      <c r="K3" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="44">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O3" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P3" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q3" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42">
+        <v>15</v>
+      </c>
+      <c r="F4" s="42">
+        <v>5</v>
+      </c>
+      <c r="G4" s="42">
+        <v>8</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="J4" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PN03</v>
+      </c>
+      <c r="K4" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="44">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O4" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P4" s="44">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q4" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42">
+        <v>5</v>
+      </c>
+      <c r="F5" s="42">
+        <v>5</v>
+      </c>
+      <c r="G5" s="42">
+        <v>10</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="J5" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PN04</v>
+      </c>
+      <c r="K5" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O5" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P5" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q5" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42">
+        <v>30</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42">
+        <v>5</v>
+      </c>
+      <c r="G6" s="42">
+        <v>3</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="J6" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PN05</v>
+      </c>
+      <c r="K6" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="44">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M6" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P6" s="44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q6" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42">
+        <v>10</v>
+      </c>
+      <c r="F7" s="42">
+        <v>5</v>
+      </c>
+      <c r="G7" s="42">
+        <v>3</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="J7" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PN06</v>
+      </c>
+      <c r="K7" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O7" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P7" s="44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q7" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42">
+        <v>35</v>
+      </c>
+      <c r="E8" s="42">
+        <v>5</v>
+      </c>
+      <c r="F8" s="42">
+        <v>5</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="J8" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PN07</v>
+      </c>
+      <c r="K8" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="44">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N8" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P8" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42">
+        <v>20</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="J9" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PN08</v>
+      </c>
+      <c r="K9" s="44">
+        <f>B9/6</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="44">
+        <f t="shared" ref="L9:Q9" si="2">C9/6</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="44">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="P9" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="42">
+        <v>35</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42">
+        <v>5</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="J10" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PN09</v>
+      </c>
+      <c r="K10" s="44">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="L10" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P10" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42">
+        <v>10</v>
+      </c>
+      <c r="E11" s="42">
+        <v>7</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42">
+        <v>3</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="J11" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PD01</v>
+      </c>
+      <c r="K11" s="44">
+        <f>B11/2</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="44">
+        <f t="shared" ref="L11:Q11" si="3">C11/2</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="44">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N11" s="44">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="O11" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="44">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q11" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42">
+        <v>7</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42">
+        <v>3</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="J12" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PD02</v>
+      </c>
+      <c r="K12" s="44">
+        <f>B12/3</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="44">
+        <f t="shared" ref="L12:Q12" si="4">C12/3</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="44">
+        <f t="shared" si="4"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="O12" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="44">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42">
+        <v>6</v>
+      </c>
+      <c r="F13" s="42">
+        <v>5</v>
+      </c>
+      <c r="G13" s="42">
+        <v>3</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="J13" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PD03</v>
+      </c>
+      <c r="K13" s="44">
+        <f>B13/2</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="44">
+        <f t="shared" ref="L13:Q13" si="5">C13/2</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="44">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O13" s="44">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="P13" s="44">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q13" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42">
+        <v>5</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="J14" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PD04</v>
+      </c>
+      <c r="K14" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q14" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="42">
+        <v>10</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42">
+        <v>5</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="J15" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PD05</v>
+      </c>
+      <c r="K15" s="44">
+        <f>B15/2</f>
+        <v>5</v>
+      </c>
+      <c r="L15" s="44">
+        <f t="shared" ref="L15:Q15" si="6">C15/2</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="44">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="P15" s="44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="42">
+        <v>5</v>
+      </c>
+      <c r="C16" s="42">
+        <v>5</v>
+      </c>
+      <c r="D16" s="42">
+        <v>5</v>
+      </c>
+      <c r="E16" s="42">
+        <v>5</v>
+      </c>
+      <c r="F16" s="42">
+        <v>5</v>
+      </c>
+      <c r="G16" s="42">
+        <v>5</v>
+      </c>
+      <c r="H16" s="42">
+        <v>5</v>
+      </c>
+      <c r="J16" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PD06</v>
+      </c>
+      <c r="K16" s="44">
+        <f>B16/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L16" s="44">
+        <f t="shared" ref="L16:Q16" si="7">C16/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M16" s="44">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N16" s="44">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O16" s="44">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P16" s="44">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q16" s="44">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42">
+        <v>7</v>
+      </c>
+      <c r="H17" s="42">
+        <v>10</v>
+      </c>
+      <c r="J17" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PA01</v>
+      </c>
+      <c r="K17" s="44">
+        <f>B17/2</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="44">
+        <f t="shared" ref="L17:Q17" si="8">C17/2</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="44">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q17" s="44">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42">
+        <v>10</v>
+      </c>
+      <c r="H18" s="42">
+        <v>10</v>
+      </c>
+      <c r="J18" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PA02</v>
+      </c>
+      <c r="K18" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="44">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q18" s="44">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42">
+        <v>25</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42">
+        <v>5</v>
+      </c>
+      <c r="J19" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PA03</v>
+      </c>
+      <c r="K19" s="44">
+        <f>B19/3</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="44">
+        <f t="shared" ref="L19:Q19" si="9">C19/3</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="M19" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="44">
+        <f t="shared" si="9"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="42">
+        <v>15</v>
+      </c>
+      <c r="C20" s="42">
+        <v>5</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42">
+        <v>10</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42">
+        <v>5</v>
+      </c>
+      <c r="H20" s="42">
+        <v>10</v>
+      </c>
+      <c r="J20" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PA04</v>
+      </c>
+      <c r="K20" s="44">
+        <f>B20/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="L20" s="44">
+        <f t="shared" ref="L20:Q21" si="10">C20/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="M20" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="44">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="O20" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="44">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q20" s="44">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="42">
+        <v>30</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42">
+        <v>25</v>
+      </c>
+      <c r="E21" s="42">
+        <v>10</v>
+      </c>
+      <c r="F21" s="42">
+        <v>10</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="J21" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PA05</v>
+      </c>
+      <c r="K21" s="44">
+        <f>B21/2</f>
+        <v>15</v>
+      </c>
+      <c r="L21" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="44">
+        <f t="shared" si="10"/>
+        <v>12.5</v>
+      </c>
+      <c r="N21" s="44">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="O21" s="44">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P21" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42">
+        <v>5</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="J22" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PA06</v>
+      </c>
+      <c r="K22" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="44">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q22" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42">
+        <v>20</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42">
+        <v>5</v>
+      </c>
+      <c r="H23" s="42">
+        <v>10</v>
+      </c>
+      <c r="J23" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PA07</v>
+      </c>
+      <c r="K23" s="44">
+        <f>B23/2</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="44">
+        <f t="shared" ref="L23:Q23" si="11">C23/2</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="44">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="N23" s="44">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="44">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="44">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q23" s="44">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42">
+        <v>5</v>
+      </c>
+      <c r="H24" s="42">
+        <v>10</v>
+      </c>
+      <c r="J24" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PA08</v>
+      </c>
+      <c r="K24" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="44">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q24" s="44">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42">
+        <v>30</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42">
+        <v>10</v>
+      </c>
+      <c r="J25" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PA09</v>
+      </c>
+      <c r="K25" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="44">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="M25" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="44">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="42">
+        <v>5</v>
+      </c>
+      <c r="C26" s="42">
+        <v>5</v>
+      </c>
+      <c r="D26" s="42">
+        <v>5</v>
+      </c>
+      <c r="E26" s="42">
+        <v>5</v>
+      </c>
+      <c r="F26" s="42">
+        <v>5</v>
+      </c>
+      <c r="G26" s="42">
+        <v>5</v>
+      </c>
+      <c r="H26" s="42">
+        <v>30</v>
+      </c>
+      <c r="J26" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PT01</v>
+      </c>
+      <c r="K26" s="44">
+        <f>B26/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L26" s="44">
+        <f t="shared" ref="L26:Q27" si="12">C26/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M26" s="44">
+        <f t="shared" si="12"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N26" s="44">
+        <f t="shared" si="12"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O26" s="44">
+        <f t="shared" si="12"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P26" s="44">
+        <f t="shared" si="12"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q26" s="44">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42">
+        <v>10</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="J27" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>PT02</v>
+      </c>
+      <c r="K27" s="44">
+        <f>B27/6</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="44">
+        <f t="shared" si="12"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P27" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="B28" s="46">
+        <f>SUM(B2:B27)</f>
+        <v>100</v>
+      </c>
+      <c r="C28" s="46">
+        <f>SUM(C2:C27)</f>
+        <v>100</v>
+      </c>
+      <c r="D28" s="46">
+        <f t="shared" ref="D28:E28" si="13">SUM(D2:D27)</f>
+        <v>100</v>
+      </c>
+      <c r="E28" s="46">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="F28" s="46">
+        <f>SUM(F2:F27)</f>
+        <v>100</v>
+      </c>
+      <c r="G28" s="46">
+        <f t="shared" ref="G28:H28" si="14">SUM(G2:G27)</f>
+        <v>100</v>
+      </c>
+      <c r="H28" s="46">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="J28" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="44">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L28" s="44">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M28" s="44">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="N28" s="44">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="O28" s="44">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="P28" s="44">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q28" s="44">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="48">
+        <f>B3+B9+B11+B12+B13+B16+B17+B19+B20+B23+B26+B27</f>
+        <v>25</v>
+      </c>
+      <c r="C30" s="48">
+        <f t="shared" ref="C30:H30" si="15">C3+C9+C11+C12+C13+C16+C17+C19+C20+C23+C26+C27</f>
+        <v>40</v>
+      </c>
+      <c r="D30" s="48">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="E30" s="48">
+        <f t="shared" si="15"/>
+        <v>55</v>
+      </c>
+      <c r="F30" s="48">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="G30" s="48">
+        <f t="shared" si="15"/>
+        <v>46</v>
+      </c>
+      <c r="H30" s="48">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="49">
+        <f>K3+K9+K11+K12+K13+K16+K17+K19+K20+K23+K26+K27</f>
+        <v>9.1666666666666679</v>
+      </c>
+      <c r="L30" s="49">
+        <f t="shared" ref="L30:Q30" si="16">L3+L9+L11+L12+L13+L16+L17+L19+L20+L23+L26+L27</f>
+        <v>12.500000000000002</v>
+      </c>
+      <c r="M30" s="49">
+        <f t="shared" si="16"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="N30" s="49">
+        <f t="shared" si="16"/>
+        <v>30.499999999999996</v>
+      </c>
+      <c r="O30" s="49">
+        <f t="shared" si="16"/>
+        <v>14.166666666666668</v>
+      </c>
+      <c r="P30" s="49">
+        <f t="shared" si="16"/>
+        <v>24.166666666666668</v>
+      </c>
+      <c r="Q30" s="49">
+        <f t="shared" si="16"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="48">
+        <f>B5+B9+B12+B16+B19+B26+B27</f>
+        <v>10</v>
+      </c>
+      <c r="C31" s="48">
+        <f t="shared" ref="C31:H31" si="17">C5+C9+C12+C16+C19+C26+C27</f>
+        <v>35</v>
+      </c>
+      <c r="D31" s="48">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="E31" s="48">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="F31" s="48">
+        <f t="shared" si="17"/>
+        <v>45</v>
+      </c>
+      <c r="G31" s="48">
+        <f t="shared" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="H31" s="48">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="49">
+        <f>K5+K9+K12+K16+K19+K26+K27</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L31" s="49">
+        <f t="shared" ref="L31:Q31" si="18">L5+L9+L12+L16+L19+L26+L27</f>
+        <v>10.000000000000002</v>
+      </c>
+      <c r="M31" s="49">
+        <f t="shared" si="18"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N31" s="49">
+        <f t="shared" si="18"/>
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="O31" s="49">
+        <f t="shared" si="18"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="P31" s="49">
+        <f t="shared" si="18"/>
+        <v>12.666666666666668</v>
+      </c>
+      <c r="Q31" s="49">
+        <f t="shared" si="18"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="48">
+        <f>B6+B9+B12+B14+B16+B18+B19+B22+B24+B25+B26+B27</f>
+        <v>10</v>
+      </c>
+      <c r="C32" s="48">
+        <f t="shared" ref="C32:H32" si="19">C6+C9+C12+C14+C16+C18+C19+C22+C24+C25+C26+C27</f>
+        <v>95</v>
+      </c>
+      <c r="D32" s="48">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="E32" s="48">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="F32" s="48">
+        <f t="shared" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="G32" s="48">
+        <f t="shared" si="19"/>
+        <v>41</v>
+      </c>
+      <c r="H32" s="48">
+        <f t="shared" si="19"/>
+        <v>70</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="49">
+        <f>K6+K9+K12+K14+K16+K18+K19+K22+K24+K25+K26+K27</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L32" s="49">
+        <f t="shared" ref="L32:Q32" si="20">L6+L9+L12+L14+L16+L18+L19+L22+L24+L25+L26+L27</f>
+        <v>69.999999999999986</v>
+      </c>
+      <c r="M32" s="49">
+        <f t="shared" si="20"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N32" s="49">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="O32" s="49">
+        <f t="shared" si="20"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="P32" s="49">
+        <f t="shared" si="20"/>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="Q32" s="49">
+        <f t="shared" si="20"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="48">
+        <f>B2+B4+B7+B9+B11+B13+B16+B17+B20+B23+B26+B27</f>
+        <v>25</v>
+      </c>
+      <c r="C33" s="48">
+        <f t="shared" ref="C33:H33" si="21">C2+C4+C7+C9+C11+C13+C16+C17+C20+C23+C26+C27</f>
+        <v>15</v>
+      </c>
+      <c r="D33" s="48">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="E33" s="48">
+        <f t="shared" si="21"/>
+        <v>58</v>
+      </c>
+      <c r="F33" s="48">
+        <f t="shared" si="21"/>
+        <v>60</v>
+      </c>
+      <c r="G33" s="48">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="H33" s="48">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="49">
+        <f>K2+K4+K7+K9+K11+K13+K16+K17+K20+K23+K26+K27</f>
+        <v>9.1666666666666679</v>
+      </c>
+      <c r="L33" s="49">
+        <f t="shared" ref="L33:Q33" si="22">L2+L4+L7+L9+L11+L13+L16+L17+L20+L23+L26+L27</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="M33" s="49">
+        <f t="shared" si="22"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="N33" s="49">
+        <f t="shared" si="22"/>
+        <v>38.166666666666671</v>
+      </c>
+      <c r="O33" s="49">
+        <f t="shared" si="22"/>
+        <v>24.166666666666664</v>
+      </c>
+      <c r="P33" s="49">
+        <f t="shared" si="22"/>
+        <v>29.166666666666664</v>
+      </c>
+      <c r="Q33" s="49">
+        <f t="shared" si="22"/>
+        <v>20.833333333333332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="48">
+        <f>B9+B10+B15+B16+B21+B26+B27</f>
+        <v>85</v>
+      </c>
+      <c r="C34" s="48">
+        <f t="shared" ref="C34:H34" si="23">C9+C10+C15+C16+C21+C26+C27</f>
+        <v>10</v>
+      </c>
+      <c r="D34" s="48">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="E34" s="48">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="F34" s="48">
+        <f t="shared" si="23"/>
+        <v>60</v>
+      </c>
+      <c r="G34" s="48">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="H34" s="48">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="49">
+        <f>K9+K10+K15+K16+K21+K26+K27</f>
+        <v>56.666666666666671</v>
+      </c>
+      <c r="L34" s="49">
+        <f t="shared" ref="L34:Q34" si="24">L9+L10+L15+L16+L21+L26+L27</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M34" s="49">
+        <f t="shared" si="24"/>
+        <v>14.166666666666668</v>
+      </c>
+      <c r="N34" s="49">
+        <f t="shared" si="24"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="O34" s="49">
+        <f t="shared" si="24"/>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="P34" s="49">
+        <f t="shared" si="24"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q34" s="49">
+        <f t="shared" si="24"/>
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="48">
+        <f>B8+B9+B15+B16+B21+B26+B27</f>
+        <v>50</v>
+      </c>
+      <c r="C35" s="48">
+        <f t="shared" ref="C35:H35" si="25">C8+C9+C15+C16+C21+C26+C27</f>
+        <v>10</v>
+      </c>
+      <c r="D35" s="48">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="E35" s="48">
+        <f t="shared" si="25"/>
+        <v>25</v>
+      </c>
+      <c r="F35" s="48">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="G35" s="48">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="H35" s="48">
+        <f t="shared" si="25"/>
+        <v>35</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="49">
+        <f>K8+K9+K15+K16+K21+K26+K27</f>
+        <v>21.666666666666664</v>
+      </c>
+      <c r="L35" s="49">
+        <f t="shared" ref="L35:Q35" si="26">L8+L9+L15+L16+L21+L26+L27</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M35" s="49">
+        <f t="shared" si="26"/>
+        <v>49.166666666666671</v>
+      </c>
+      <c r="N35" s="49">
+        <f t="shared" si="26"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="O35" s="49">
+        <f t="shared" si="26"/>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="P35" s="49">
+        <f t="shared" si="26"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q35" s="49">
+        <f t="shared" si="26"/>
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="48"/>
+      <c r="B36" s="48">
+        <f>SUM(B30:B35)</f>
+        <v>205</v>
+      </c>
+      <c r="C36" s="48">
+        <f t="shared" ref="C36:H36" si="27">SUM(C30:C35)</f>
+        <v>205</v>
+      </c>
+      <c r="D36" s="48">
+        <f t="shared" si="27"/>
+        <v>205</v>
+      </c>
+      <c r="E36" s="48">
+        <f t="shared" si="27"/>
+        <v>197</v>
+      </c>
+      <c r="F36" s="48">
+        <f t="shared" si="27"/>
+        <v>320</v>
+      </c>
+      <c r="G36" s="48">
+        <f t="shared" si="27"/>
+        <v>179</v>
+      </c>
+      <c r="H36" s="48">
+        <f t="shared" si="27"/>
+        <v>315</v>
+      </c>
+      <c r="J36" s="48"/>
+      <c r="K36" s="49">
+        <f>SUM(K30:K35)</f>
+        <v>100</v>
+      </c>
+      <c r="L36" s="49">
+        <f t="shared" ref="L36:Q36" si="28">SUM(L30:L35)</f>
+        <v>100</v>
+      </c>
+      <c r="M36" s="49">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="N36" s="49">
+        <f t="shared" si="28"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="O36" s="49">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="P36" s="49">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="Q36" s="49">
+        <f t="shared" si="28"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="K38" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="N38" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="O38" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P38" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="48">
+        <v>10</v>
+      </c>
+      <c r="L39" s="48">
+        <v>10</v>
+      </c>
+      <c r="M39" s="48">
+        <v>15</v>
+      </c>
+      <c r="N39" s="48">
+        <v>30</v>
+      </c>
+      <c r="O39" s="48">
+        <v>15</v>
+      </c>
+      <c r="P39" s="48">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="48">
+        <v>5</v>
+      </c>
+      <c r="L40" s="48">
+        <v>10</v>
+      </c>
+      <c r="M40" s="48">
+        <v>5</v>
+      </c>
+      <c r="N40" s="48">
+        <v>10</v>
+      </c>
+      <c r="O40" s="48">
+        <v>10</v>
+      </c>
+      <c r="P40" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q40" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="48">
+        <v>5</v>
+      </c>
+      <c r="L41" s="48">
+        <v>65</v>
+      </c>
+      <c r="M41" s="48">
+        <v>5</v>
+      </c>
+      <c r="N41" s="48">
+        <v>5</v>
+      </c>
+      <c r="O41" s="48">
+        <v>10</v>
+      </c>
+      <c r="P41" s="48">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="48">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="48">
+        <v>10</v>
+      </c>
+      <c r="L42" s="48">
+        <v>5</v>
+      </c>
+      <c r="M42" s="48">
+        <v>15</v>
+      </c>
+      <c r="N42" s="48">
+        <v>30</v>
+      </c>
+      <c r="O42" s="48">
+        <v>25</v>
+      </c>
+      <c r="P42" s="48">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="48">
+        <v>50</v>
+      </c>
+      <c r="L43" s="48">
+        <v>5</v>
+      </c>
+      <c r="M43" s="48">
+        <v>15</v>
+      </c>
+      <c r="N43" s="48">
+        <v>10</v>
+      </c>
+      <c r="O43" s="48">
+        <v>20</v>
+      </c>
+      <c r="P43" s="48">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="48">
+        <v>20</v>
+      </c>
+      <c r="L44" s="48">
+        <v>5</v>
+      </c>
+      <c r="M44" s="48">
+        <v>45</v>
+      </c>
+      <c r="N44" s="48">
+        <v>15</v>
+      </c>
+      <c r="O44" s="48">
+        <v>20</v>
+      </c>
+      <c r="P44" s="48">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="K46" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="P46" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47" s="48">
+        <v>25</v>
+      </c>
+      <c r="L47" s="48">
+        <v>35</v>
+      </c>
+      <c r="M47" s="48">
+        <v>10</v>
+      </c>
+      <c r="N47" s="48">
+        <v>20</v>
+      </c>
+      <c r="O47" s="48">
+        <v>5</v>
+      </c>
+      <c r="P47" s="48">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="48">
+        <f>SUM(K47:P47)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" s="48">
+        <v>25</v>
+      </c>
+      <c r="L48" s="48">
+        <v>25</v>
+      </c>
+      <c r="M48" s="48">
+        <v>15</v>
+      </c>
+      <c r="N48" s="48">
+        <v>25</v>
+      </c>
+      <c r="O48" s="48">
+        <v>5</v>
+      </c>
+      <c r="P48" s="48">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="48">
+        <f>SUM(K48:P48)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="48">
+        <v>15</v>
+      </c>
+      <c r="L49" s="48">
+        <v>10</v>
+      </c>
+      <c r="M49" s="48">
+        <v>10</v>
+      </c>
+      <c r="N49" s="48">
+        <v>25</v>
+      </c>
+      <c r="O49" s="48">
+        <v>20</v>
+      </c>
+      <c r="P49" s="48">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="48">
+        <f>SUM(K49:P49)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" s="48">
+        <v>30</v>
+      </c>
+      <c r="L50" s="48">
+        <v>5</v>
+      </c>
+      <c r="M50" s="48">
+        <v>10</v>
+      </c>
+      <c r="N50" s="48">
+        <v>30</v>
+      </c>
+      <c r="O50" s="48">
+        <v>10</v>
+      </c>
+      <c r="P50" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q50" s="48">
+        <f>SUM(K50:P50)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" s="48">
+        <v>15</v>
+      </c>
+      <c r="L51" s="48">
+        <v>5</v>
+      </c>
+      <c r="M51" s="48">
+        <v>5</v>
+      </c>
+      <c r="N51" s="48">
+        <v>15</v>
+      </c>
+      <c r="O51" s="48">
+        <v>15</v>
+      </c>
+      <c r="P51" s="48">
+        <v>45</v>
+      </c>
+      <c r="Q51" s="48">
+        <f>SUM(K51:P51)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="48">
+        <v>10</v>
+      </c>
+      <c r="L52" s="48">
+        <v>65</v>
+      </c>
+      <c r="M52" s="48">
+        <v>10</v>
+      </c>
+      <c r="N52" s="48">
+        <v>5</v>
+      </c>
+      <c r="O52" s="48">
+        <v>5</v>
+      </c>
+      <c r="P52" s="48">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="48">
+        <f>SUM(K52:P52)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53" s="48">
+        <v>10</v>
+      </c>
+      <c r="L53" s="48">
+        <v>5</v>
+      </c>
+      <c r="M53" s="48">
+        <v>5</v>
+      </c>
+      <c r="N53" s="48">
+        <v>10</v>
+      </c>
+      <c r="O53" s="48">
+        <v>50</v>
+      </c>
+      <c r="P53" s="48">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="48">
+        <f>SUM(K53:P53)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="K55" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="O55" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="P55" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="48">
+        <v>25</v>
+      </c>
+      <c r="L56" s="48">
+        <f>K56+L47</f>
+        <v>60</v>
+      </c>
+      <c r="M56" s="48">
+        <f>L56+M47</f>
+        <v>70</v>
+      </c>
+      <c r="N56" s="48">
+        <f>M56+N47</f>
+        <v>90</v>
+      </c>
+      <c r="O56" s="48">
+        <f>N56+O47</f>
+        <v>95</v>
+      </c>
+      <c r="P56" s="48">
+        <f>O56+P47</f>
+        <v>100</v>
+      </c>
+      <c r="Q56" s="48">
+        <f>SUM(K56:P56)</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57" s="48">
+        <v>25</v>
+      </c>
+      <c r="L57" s="48">
+        <f>K57+L48</f>
+        <v>50</v>
+      </c>
+      <c r="M57" s="48">
+        <f>L57+M48</f>
+        <v>65</v>
+      </c>
+      <c r="N57" s="48">
+        <f>M57+N48</f>
+        <v>90</v>
+      </c>
+      <c r="O57" s="48">
+        <f>N57+O48</f>
+        <v>95</v>
+      </c>
+      <c r="P57" s="48">
+        <f>O57+P48</f>
+        <v>100</v>
+      </c>
+      <c r="Q57" s="48">
+        <f>SUM(K57:P57)</f>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="48">
+        <v>15</v>
+      </c>
+      <c r="L58" s="48">
+        <f>K58+L49</f>
+        <v>25</v>
+      </c>
+      <c r="M58" s="48">
+        <f>L58+M49</f>
+        <v>35</v>
+      </c>
+      <c r="N58" s="48">
+        <f>M58+N49</f>
+        <v>60</v>
+      </c>
+      <c r="O58" s="48">
+        <f>N58+O49</f>
+        <v>80</v>
+      </c>
+      <c r="P58" s="48">
+        <f>O58+P49</f>
+        <v>100</v>
+      </c>
+      <c r="Q58" s="48">
+        <f>SUM(K58:P58)</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" s="48">
+        <v>30</v>
+      </c>
+      <c r="L59" s="48">
+        <f>K59+L50</f>
+        <v>35</v>
+      </c>
+      <c r="M59" s="48">
+        <f>L59+M50</f>
+        <v>45</v>
+      </c>
+      <c r="N59" s="48">
+        <f>M59+N50</f>
+        <v>75</v>
+      </c>
+      <c r="O59" s="48">
+        <f>N59+O50</f>
+        <v>85</v>
+      </c>
+      <c r="P59" s="48">
+        <f>O59+P50</f>
+        <v>100</v>
+      </c>
+      <c r="Q59" s="48">
+        <f>SUM(K59:P59)</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60" s="48">
+        <v>15</v>
+      </c>
+      <c r="L60" s="48">
+        <f>K60+L51</f>
+        <v>20</v>
+      </c>
+      <c r="M60" s="48">
+        <f>L60+M51</f>
+        <v>25</v>
+      </c>
+      <c r="N60" s="48">
+        <f>M60+N51</f>
+        <v>40</v>
+      </c>
+      <c r="O60" s="48">
+        <f>N60+O51</f>
+        <v>55</v>
+      </c>
+      <c r="P60" s="48">
+        <f>O60+P51</f>
+        <v>100</v>
+      </c>
+      <c r="Q60" s="48">
+        <f>SUM(K60:P60)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" s="48">
+        <v>10</v>
+      </c>
+      <c r="L61" s="48">
+        <f>K61+L52</f>
+        <v>75</v>
+      </c>
+      <c r="M61" s="48">
+        <f>L61+M52</f>
+        <v>85</v>
+      </c>
+      <c r="N61" s="48">
+        <f>M61+N52</f>
+        <v>90</v>
+      </c>
+      <c r="O61" s="48">
+        <f>N61+O52</f>
+        <v>95</v>
+      </c>
+      <c r="P61" s="48">
+        <f>O61+P52</f>
+        <v>100</v>
+      </c>
+      <c r="Q61" s="48">
+        <f>SUM(K61:P61)</f>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62" s="48">
+        <v>10</v>
+      </c>
+      <c r="L62" s="48">
+        <f>K62+L53</f>
+        <v>15</v>
+      </c>
+      <c r="M62" s="48">
+        <f>L62+M53</f>
+        <v>20</v>
+      </c>
+      <c r="N62" s="48">
+        <f>M62+N53</f>
+        <v>30</v>
+      </c>
+      <c r="O62" s="48">
+        <f>N62+O53</f>
+        <v>80</v>
+      </c>
+      <c r="P62" s="48">
+        <f>O62+P53</f>
+        <v>100</v>
+      </c>
+      <c r="Q62" s="48">
+        <f>SUM(K62:P62)</f>
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="J47:Q53">
+    <sortCondition descending="1" ref="J47"/>
+  </sortState>
+  <conditionalFormatting sqref="B2:H27">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CSOF5100 Proyecto 1/0601DocumentoFinal.xlsx
+++ b/CSOF5100 Proyecto 1/0601DocumentoFinal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18915" windowHeight="8475" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18915" windowHeight="8475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
   <si>
     <t>Proyecto 1: Órdenes de Compra</t>
   </si>
@@ -220,6 +220,105 @@
   </si>
   <si>
     <t>PT02</t>
+  </si>
+  <si>
+    <t>Permite implementar SLA, gestionar los reclamos de facturación, órdenes incompletas, órdenes tardías, comisiones mal calculadas.</t>
+  </si>
+  <si>
+    <t>Permite soportar la funcionalidad del pago en línea</t>
+  </si>
+  <si>
+    <t>Brinda herramientas de comunicación entre los clientes y permite implementar la funcionalidad de calificación.</t>
+  </si>
+  <si>
+    <t>Permite escoger un proveedor de manera directa teniendo como referencia las calificaciones dadas y su historial.</t>
+  </si>
+  <si>
+    <t>Permite implementar una vista 360° del cliente donde se generan una gran cantidad de reportes.</t>
+  </si>
+  <si>
+    <t>Soporta la nueva visión internacional del MarketPlace.</t>
+  </si>
+  <si>
+    <t>La comunicación debe ser estandarizada para facilitar el crecimiento y adaptación del MarketPlace en más países.</t>
+  </si>
+  <si>
+    <t>Se realizará una modificación para incluir el registro de entidades internacionales, verificando por medio de un sistema externo la existencia y estado de la entidad.</t>
+  </si>
+  <si>
+    <t>Se modifica el proceso de órdenes de compra para incluir la opción de compra directa para el comercio. También se adiciona el cálculo del overhead que se debe tener en cuenta para comercios y fabricantes externos.</t>
+  </si>
+  <si>
+    <t>Se modifica la consulta de los comercios interesados al realizar el proceso de replicar catálogo de los fabricantes.</t>
+  </si>
+  <si>
+    <t>Se adhieren cálculos y validaciones importantes de acuerdo a los comercios y fabricantes internacionales. Entre estos se encuentra el overhead de tiempo y costo.</t>
+  </si>
+  <si>
+    <t>Se adiciona la opción al cliente para pagos en línea, al igual que el proceso para llevarlo a realizarlo.</t>
+  </si>
+  <si>
+    <t>Se agrega la información de las categorías por las cuales se interesa el comercio.</t>
+  </si>
+  <si>
+    <t>Se crea el proceso de calificaciones, permitiendo la evaluación de los fabricantes por parte de los comercios y del MarketPlace por parte de los clientes.</t>
+  </si>
+  <si>
+    <t>Se crea el proceso de generación de informes sobre la información del cliente y sus transacciones realizadas dentro del MarketPlace.</t>
+  </si>
+  <si>
+    <t>Se crea el proceso de gestión de solicitudes de postventa que permitirá realizar peticiones quejas y reclamos por parte de los clientes del MarketPlace.</t>
+  </si>
+  <si>
+    <t>Este proyecto une las brechas encontradas para modificar las entidades cliente, fabricante y comercio que se encuentran directamente relacionadas.</t>
+  </si>
+  <si>
+    <t>Este proyecto une las brechas encontradas para modificar las entidades orden de compra y producto que se encuentran directamente relacionadas.</t>
+  </si>
+  <si>
+    <t>Este proyecto incluirá todas las tareas necesarias para crear la entidad categoría y modificar el catálogo de productos.</t>
+  </si>
+  <si>
+    <t>Este proyecto incluirá todas las tareas necesarias para crear la entidad TRM.</t>
+  </si>
+  <si>
+    <t>Este proyecto incluirá todas las tareas necesarias para crear las entidades reclamos y calificación.</t>
+  </si>
+  <si>
+    <t>Este proyecto incluirá todas las tareas necesarias para crear la Log</t>
+  </si>
+  <si>
+    <t>Permite consultar en un sistema externo la información de entidades que no pertenecen a Colombia</t>
+  </si>
+  <si>
+    <t>Permite administrar las tasas representativas del mercado dentro del marketplace. Entre sus principales funciones se encuentra guardar un histórico de las tasas de cambio usadas por el Marketplace de los Alpes</t>
+  </si>
+  <si>
+    <t>Permite a los usuarios del marketplace de los alpes  hacer uso de un sistema de pagos</t>
+  </si>
+  <si>
+    <t>Ajustar el sistema POManager para soportar los nuevos drivers de negocio</t>
+  </si>
+  <si>
+    <t>Ajustar el sistema de auditoria para soportar los nuevos drivers de negocio</t>
+  </si>
+  <si>
+    <t>Modificar la implementacion de la integracion del sistema BillingChargesSystem para que pueda invocar el sistema TRMSystem</t>
+  </si>
+  <si>
+    <t>Implementacion de la integracion del nuevo sistema InternationalRiskCualificationSystem para que este pueda invocar al CRM y al sistema de autenticacion SSO Authentication</t>
+  </si>
+  <si>
+    <t>Implementacion de la integracion del TRMSystem para que pueda invocar al sistema de autenticacion SSO Authentication</t>
+  </si>
+  <si>
+    <t>Implementacion de la integracion del PaymentSystem para que pueda invocar al sistema de autenticación SSO Authentication asi como al CRM</t>
+  </si>
+  <si>
+    <t>Realizar una revisión sobre las configuraciones de las plataformas del AS-IS con el fin de verificar  y modificar para que soporten los nuevos motivadores de negocio, incluyendo el de mensajería estándar.</t>
+  </si>
+  <si>
+    <t>Analizar y optimizar las consultas de información para la realización de reportes presentados al cliente.</t>
   </si>
 </sst>
 </file>
@@ -230,7 +329,7 @@
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +361,32 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -468,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -546,11 +671,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1137,11 +1309,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="61845504"/>
-        <c:axId val="61847040"/>
+        <c:axId val="56961280"/>
+        <c:axId val="56971648"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="61845504"/>
+        <c:axId val="56961280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,14 +1338,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61847040"/>
+        <c:crossAx val="56971648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61847040"/>
+        <c:axId val="56971648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,7 +1378,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="61845504"/>
+        <c:crossAx val="56961280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1236,7 +1408,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4249,7 +4421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C47" workbookViewId="0">
+    <sheetView topLeftCell="C47" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
@@ -4286,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="38" t="str">
-        <f t="shared" ref="K1:Q16" si="0">B1</f>
+        <f t="shared" ref="K1:Q14" si="0">B1</f>
         <v>M1</v>
       </c>
       <c r="L1" s="38" t="str">
@@ -6339,7 +6511,7 @@
         <v>5</v>
       </c>
       <c r="Q47" s="48">
-        <f>SUM(K47:P47)</f>
+        <f t="shared" ref="Q47:Q53" si="29">SUM(K47:P47)</f>
         <v>100</v>
       </c>
     </row>
@@ -6366,7 +6538,7 @@
         <v>5</v>
       </c>
       <c r="Q48" s="48">
-        <f>SUM(K48:P48)</f>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
     </row>
@@ -6393,7 +6565,7 @@
         <v>20</v>
       </c>
       <c r="Q49" s="48">
-        <f>SUM(K49:P49)</f>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
     </row>
@@ -6420,7 +6592,7 @@
         <v>15</v>
       </c>
       <c r="Q50" s="48">
-        <f>SUM(K50:P50)</f>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
     </row>
@@ -6447,7 +6619,7 @@
         <v>45</v>
       </c>
       <c r="Q51" s="48">
-        <f>SUM(K51:P51)</f>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
     </row>
@@ -6474,7 +6646,7 @@
         <v>5</v>
       </c>
       <c r="Q52" s="48">
-        <f>SUM(K52:P52)</f>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
     </row>
@@ -6501,7 +6673,7 @@
         <v>20</v>
       </c>
       <c r="Q53" s="48">
-        <f>SUM(K53:P53)</f>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
     </row>
@@ -6533,27 +6705,27 @@
         <v>25</v>
       </c>
       <c r="L56" s="48">
-        <f>K56+L47</f>
+        <f t="shared" ref="L56:P62" si="30">K56+L47</f>
         <v>60</v>
       </c>
       <c r="M56" s="48">
-        <f>L56+M47</f>
+        <f t="shared" si="30"/>
         <v>70</v>
       </c>
       <c r="N56" s="48">
-        <f>M56+N47</f>
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
       <c r="O56" s="48">
-        <f>N56+O47</f>
+        <f t="shared" si="30"/>
         <v>95</v>
       </c>
       <c r="P56" s="48">
-        <f>O56+P47</f>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="Q56" s="48">
-        <f>SUM(K56:P56)</f>
+        <f t="shared" ref="Q56:Q62" si="31">SUM(K56:P56)</f>
         <v>440</v>
       </c>
     </row>
@@ -6565,27 +6737,27 @@
         <v>25</v>
       </c>
       <c r="L57" s="48">
-        <f>K57+L48</f>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="M57" s="48">
-        <f>L57+M48</f>
+        <f t="shared" si="30"/>
         <v>65</v>
       </c>
       <c r="N57" s="48">
-        <f>M57+N48</f>
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
       <c r="O57" s="48">
-        <f>N57+O48</f>
+        <f t="shared" si="30"/>
         <v>95</v>
       </c>
       <c r="P57" s="48">
-        <f>O57+P48</f>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="Q57" s="48">
-        <f>SUM(K57:P57)</f>
+        <f t="shared" si="31"/>
         <v>425</v>
       </c>
     </row>
@@ -6597,27 +6769,27 @@
         <v>15</v>
       </c>
       <c r="L58" s="48">
-        <f>K58+L49</f>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="M58" s="48">
-        <f>L58+M49</f>
+        <f t="shared" si="30"/>
         <v>35</v>
       </c>
       <c r="N58" s="48">
-        <f>M58+N49</f>
+        <f t="shared" si="30"/>
         <v>60</v>
       </c>
       <c r="O58" s="48">
-        <f>N58+O49</f>
+        <f t="shared" si="30"/>
         <v>80</v>
       </c>
       <c r="P58" s="48">
-        <f>O58+P49</f>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="Q58" s="48">
-        <f>SUM(K58:P58)</f>
+        <f t="shared" si="31"/>
         <v>315</v>
       </c>
     </row>
@@ -6629,27 +6801,27 @@
         <v>30</v>
       </c>
       <c r="L59" s="48">
-        <f>K59+L50</f>
+        <f t="shared" si="30"/>
         <v>35</v>
       </c>
       <c r="M59" s="48">
-        <f>L59+M50</f>
+        <f t="shared" si="30"/>
         <v>45</v>
       </c>
       <c r="N59" s="48">
-        <f>M59+N50</f>
+        <f t="shared" si="30"/>
         <v>75</v>
       </c>
       <c r="O59" s="48">
-        <f>N59+O50</f>
+        <f t="shared" si="30"/>
         <v>85</v>
       </c>
       <c r="P59" s="48">
-        <f>O59+P50</f>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="Q59" s="48">
-        <f>SUM(K59:P59)</f>
+        <f t="shared" si="31"/>
         <v>370</v>
       </c>
     </row>
@@ -6661,27 +6833,27 @@
         <v>15</v>
       </c>
       <c r="L60" s="48">
-        <f>K60+L51</f>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="M60" s="48">
-        <f>L60+M51</f>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="N60" s="48">
-        <f>M60+N51</f>
+        <f t="shared" si="30"/>
         <v>40</v>
       </c>
       <c r="O60" s="48">
-        <f>N60+O51</f>
+        <f t="shared" si="30"/>
         <v>55</v>
       </c>
       <c r="P60" s="48">
-        <f>O60+P51</f>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="Q60" s="48">
-        <f>SUM(K60:P60)</f>
+        <f t="shared" si="31"/>
         <v>255</v>
       </c>
     </row>
@@ -6693,27 +6865,27 @@
         <v>10</v>
       </c>
       <c r="L61" s="48">
-        <f>K61+L52</f>
+        <f t="shared" si="30"/>
         <v>75</v>
       </c>
       <c r="M61" s="48">
-        <f>L61+M52</f>
+        <f t="shared" si="30"/>
         <v>85</v>
       </c>
       <c r="N61" s="48">
-        <f>M61+N52</f>
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
       <c r="O61" s="48">
-        <f>N61+O52</f>
+        <f t="shared" si="30"/>
         <v>95</v>
       </c>
       <c r="P61" s="48">
-        <f>O61+P52</f>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="Q61" s="48">
-        <f>SUM(K61:P61)</f>
+        <f t="shared" si="31"/>
         <v>455</v>
       </c>
     </row>
@@ -6725,27 +6897,27 @@
         <v>10</v>
       </c>
       <c r="L62" s="48">
-        <f>K62+L53</f>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="M62" s="48">
-        <f>L62+M53</f>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="N62" s="48">
-        <f>M62+N53</f>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="O62" s="48">
-        <f>N62+O53</f>
+        <f t="shared" si="30"/>
         <v>80</v>
       </c>
       <c r="P62" s="48">
-        <f>O62+P53</f>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="Q62" s="48">
-        <f>SUM(K62:P62)</f>
+        <f t="shared" si="31"/>
         <v>255</v>
       </c>
     </row>
@@ -6754,7 +6926,7 @@
     <sortCondition descending="1" ref="J47"/>
   </sortState>
   <conditionalFormatting sqref="B2:H27">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6765,12 +6937,559 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="8" width="21.42578125" style="59" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="76.5">
+      <c r="A2" s="41"/>
+      <c r="B2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="114.75">
+      <c r="A3" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55">
+        <v>5</v>
+      </c>
+      <c r="G3" s="55">
+        <v>5</v>
+      </c>
+      <c r="H3" s="55"/>
+    </row>
+    <row r="4" spans="1:8" ht="127.5">
+      <c r="A4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55">
+        <v>15</v>
+      </c>
+      <c r="F4" s="55">
+        <v>5</v>
+      </c>
+      <c r="G4" s="55">
+        <v>10</v>
+      </c>
+      <c r="H4" s="55"/>
+    </row>
+    <row r="5" spans="1:8" ht="76.5">
+      <c r="A5" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55">
+        <v>15</v>
+      </c>
+      <c r="F5" s="55">
+        <v>5</v>
+      </c>
+      <c r="G5" s="55">
+        <v>8</v>
+      </c>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:8" ht="102">
+      <c r="A6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55">
+        <v>5</v>
+      </c>
+      <c r="F6" s="55">
+        <v>5</v>
+      </c>
+      <c r="G6" s="55">
+        <v>10</v>
+      </c>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" spans="1:8" ht="63.75">
+      <c r="A7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="55">
+        <v>30</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55">
+        <v>5</v>
+      </c>
+      <c r="G7" s="55">
+        <v>3</v>
+      </c>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" spans="1:8" ht="51">
+      <c r="A8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55">
+        <v>10</v>
+      </c>
+      <c r="F8" s="55">
+        <v>5</v>
+      </c>
+      <c r="G8" s="55">
+        <v>3</v>
+      </c>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" spans="1:8" ht="102">
+      <c r="A9" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55">
+        <v>35</v>
+      </c>
+      <c r="E9" s="55">
+        <v>5</v>
+      </c>
+      <c r="F9" s="55">
+        <v>5</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="1:8" ht="76.5">
+      <c r="A10" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55">
+        <v>20</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="11" spans="1:8" ht="89.25">
+      <c r="A11" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="55">
+        <v>35</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55">
+        <v>5</v>
+      </c>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+    </row>
+    <row r="12" spans="1:8" ht="102">
+      <c r="A12" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55">
+        <v>10</v>
+      </c>
+      <c r="E12" s="55">
+        <v>7</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55">
+        <v>3</v>
+      </c>
+      <c r="H12" s="55"/>
+    </row>
+    <row r="13" spans="1:8" ht="102">
+      <c r="A13" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55">
+        <v>7</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55">
+        <v>3</v>
+      </c>
+      <c r="H13" s="55"/>
+    </row>
+    <row r="14" spans="1:8" ht="76.5">
+      <c r="A14" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55">
+        <v>6</v>
+      </c>
+      <c r="F14" s="55">
+        <v>5</v>
+      </c>
+      <c r="G14" s="55">
+        <v>3</v>
+      </c>
+      <c r="H14" s="55"/>
+    </row>
+    <row r="15" spans="1:8" ht="51">
+      <c r="A15" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55">
+        <v>5</v>
+      </c>
+      <c r="H15" s="55"/>
+    </row>
+    <row r="16" spans="1:8" ht="63.75">
+      <c r="A16" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="55">
+        <v>10</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55">
+        <v>5</v>
+      </c>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+    </row>
+    <row r="17" spans="1:8" ht="51">
+      <c r="A17" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="55">
+        <v>5</v>
+      </c>
+      <c r="C17" s="55">
+        <v>5</v>
+      </c>
+      <c r="D17" s="55">
+        <v>5</v>
+      </c>
+      <c r="E17" s="55">
+        <v>5</v>
+      </c>
+      <c r="F17" s="55">
+        <v>5</v>
+      </c>
+      <c r="G17" s="55">
+        <v>5</v>
+      </c>
+      <c r="H17" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="63.75">
+      <c r="A18" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55">
+        <v>7</v>
+      </c>
+      <c r="H18" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="114.75">
+      <c r="A19" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55">
+        <v>10</v>
+      </c>
+      <c r="H19" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="51">
+      <c r="A20" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55">
+        <v>25</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="51">
+      <c r="A21" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="55">
+        <v>15</v>
+      </c>
+      <c r="C21" s="55">
+        <v>5</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55">
+        <v>10</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55">
+        <v>5</v>
+      </c>
+      <c r="H21" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="51">
+      <c r="A22" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="55">
+        <v>30</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55">
+        <v>25</v>
+      </c>
+      <c r="E22" s="55">
+        <v>10</v>
+      </c>
+      <c r="F22" s="55">
+        <v>10</v>
+      </c>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+    </row>
+    <row r="23" spans="1:8" ht="76.5">
+      <c r="A23" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55">
+        <v>5</v>
+      </c>
+      <c r="H23" s="55"/>
+    </row>
+    <row r="24" spans="1:8" ht="114.75">
+      <c r="A24" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55">
+        <v>20</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55">
+        <v>5</v>
+      </c>
+      <c r="H24" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="76.5">
+      <c r="A25" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55">
+        <v>5</v>
+      </c>
+      <c r="H25" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="89.25">
+      <c r="A26" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55">
+        <v>30</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="127.5">
+      <c r="A27" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="55">
+        <v>5</v>
+      </c>
+      <c r="C27" s="55">
+        <v>5</v>
+      </c>
+      <c r="D27" s="55">
+        <v>5</v>
+      </c>
+      <c r="E27" s="55">
+        <v>5</v>
+      </c>
+      <c r="F27" s="55">
+        <v>5</v>
+      </c>
+      <c r="G27" s="55">
+        <v>5</v>
+      </c>
+      <c r="H27" s="55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="63.75">
+      <c r="A28" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55">
+        <v>10</v>
+      </c>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="57"/>
+      <c r="B29" s="58">
+        <f>SUM(B3:B28)</f>
+        <v>100</v>
+      </c>
+      <c r="C29" s="58">
+        <f>SUM(C3:C28)</f>
+        <v>100</v>
+      </c>
+      <c r="D29" s="58">
+        <f t="shared" ref="D29:E29" si="0">SUM(D3:D28)</f>
+        <v>100</v>
+      </c>
+      <c r="E29" s="58">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F29" s="58">
+        <f>SUM(F3:F28)</f>
+        <v>100</v>
+      </c>
+      <c r="G29" s="58">
+        <f t="shared" ref="G29:H29" si="1">SUM(G3:G28)</f>
+        <v>100</v>
+      </c>
+      <c r="H29" s="58">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:H28">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>